--- a/Unit Functions/Currency/Unit_Currency(Differential_Inversions).xlsx
+++ b/Unit Functions/Currency/Unit_Currency(Differential_Inversions).xlsx
@@ -7,8 +7,9 @@
     <sheet state="visible" name="Reaction Complex  2i" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Square Root" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Holographic Principle" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Lambda Base Equation" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Chart" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Lambda Alternate 1." sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Chart 1" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Lambda Alternate 2" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +17,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+  <si>
+    <t>Conversion Rate</t>
+  </si>
+  <si>
+    <t>USD / GBP</t>
+  </si>
+  <si>
+    <t>Nuclear Ratio</t>
+  </si>
+  <si>
+    <t>GBP / USD</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Selling into USD</t>
+  </si>
+  <si>
+    <t>Product Price Point</t>
+  </si>
+  <si>
+    <t>Selling into GBP</t>
+  </si>
   <si>
     <t>S</t>
   </si>
@@ -200,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -208,13 +233,29 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -261,20 +302,11 @@
     <xf borderId="5" fillId="2" fontId="5" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="5" fillId="2" fontId="5" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="5" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="6" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -291,9 +323,6 @@
     <xf borderId="5" fillId="2" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="4" fillId="2" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -301,28 +330,19 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="7" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="7" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="3" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -353,16 +373,16 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Lambda Base Equation'!$E$4:$E$16</c:f>
+              <c:f>'Lambda Alternate 1.'!$E$4:$E$16</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1387485880"/>
-        <c:axId val="1260855102"/>
+        <c:axId val="1304983164"/>
+        <c:axId val="854730598"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1387485880"/>
+        <c:axId val="1304983164"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,10 +428,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1260855102"/>
+        <c:crossAx val="854730598"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1260855102"/>
+        <c:axId val="854730598"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -480,7 +500,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1387485880"/>
+        <c:crossAx val="1304983164"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -558,6 +578,10 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -765,51 +789,1138 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="3" width="47.14"/>
+    <col customWidth="1" min="4" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <f>B2-B3%</f>
-        <v>0.0002318432748</v>
+        <v>4.984275539</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("6.72*GOOGLEFINANCE(""CURRENCY:vndgbp"")"),2.3200705920000002E-4)</f>
-        <v>0.0002320070592</v>
-      </c>
-      <c r="C2" s="2"/>
+        <f>B8</f>
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""CURRENCY:vndgbp"")"),3.452486E-5)</f>
-        <v>0.00003452486</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""CURRENCY:usdgbp"")"),0.809792)</f>
+        <v>0.809792</v>
+      </c>
+      <c r="B3" s="4">
         <f>(((A3^1.14)+((C3^-1.14))))</f>
-        <v>0.00001637844123</v>
-      </c>
-      <c r="C3" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""CURRENCY:gbpvnd"")"),28991.31211)</f>
-        <v>28991.31211</v>
+        <v>1.572446096</v>
+      </c>
+      <c r="C3" s="4">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""CURRENCY:gbpusd"")"),1.234885)</f>
+        <v>1.234885</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5">
         <f>B2+B3%</f>
-        <v>0.0002321708436</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>5.015724461</v>
+      </c>
+      <c r="C5" s="5"/>
     </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="9">
+        <f>'Lambda Alternate 1.'!E16</f>
+        <v>30.65946797</v>
+      </c>
+      <c r="B8" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="C8" s="9" t="str">
+        <f>'Lambda Alternate 2'!E16</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -829,356 +1940,1336 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12">
         <f>(H7-G6-F5-E4-D3-C2)</f>
-        <v>-347895.7452</v>
-      </c>
-      <c r="C1" s="6">
+        <v>0.9058409625</v>
+      </c>
+      <c r="C1" s="12">
         <f t="shared" ref="C1:M1" si="1">(H6-G5-F4-E3-D2)</f>
-        <v>-144956.5607</v>
-      </c>
-      <c r="D1" s="6">
+        <v>-25.04377816</v>
+      </c>
+      <c r="D1" s="12">
         <f t="shared" si="1"/>
-        <v>-173947.8729</v>
-      </c>
-      <c r="E1" s="6">
+        <v>-30.99600144</v>
+      </c>
+      <c r="E1" s="12">
         <f t="shared" si="1"/>
-        <v>-202939.1851</v>
-      </c>
-      <c r="F1" s="6">
+        <v>-36.94822473</v>
+      </c>
+      <c r="F1" s="12">
         <f t="shared" si="1"/>
-        <v>-231930.4972</v>
-      </c>
-      <c r="G1" s="6">
+        <v>-42.90044802</v>
+      </c>
+      <c r="G1" s="12">
         <f t="shared" si="1"/>
-        <v>-260921.8094</v>
-      </c>
-      <c r="H1" s="6">
+        <v>-48.85267131</v>
+      </c>
+      <c r="H1" s="12">
         <f t="shared" si="1"/>
-        <v>-289913.1215</v>
-      </c>
-      <c r="I1" s="6">
+        <v>-54.8048946</v>
+      </c>
+      <c r="I1" s="12">
         <f t="shared" si="1"/>
-        <v>-318904.4335</v>
-      </c>
-      <c r="J1" s="6">
+        <v>-41.88776473</v>
+      </c>
+      <c r="J1" s="12">
         <f t="shared" si="1"/>
-        <v>-0.0003275688246</v>
-      </c>
-      <c r="K1" s="6">
+        <v>-31.44892193</v>
+      </c>
+      <c r="K1" s="12">
         <f t="shared" si="1"/>
-        <v>-0.0001637844123</v>
-      </c>
-      <c r="L1" s="6">
+        <v>-15.72446096</v>
+      </c>
+      <c r="L1" s="12">
         <f t="shared" si="1"/>
-        <v>-0.0001801628535</v>
-      </c>
-      <c r="M1" s="6">
+        <v>-17.29690706</v>
+      </c>
+      <c r="M1" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14">
         <f>SUM(B1:M1)</f>
-        <v>-1971409.226</v>
-      </c>
-      <c r="C2" s="9">
+        <v>-344.998232</v>
+      </c>
+      <c r="C2" s="15">
         <f t="shared" ref="C2:M2" si="2">(C4-C3)</f>
-        <v>0.00001637844123</v>
-      </c>
-      <c r="D2" s="9">
+        <v>1.572446096</v>
+      </c>
+      <c r="D2" s="15">
         <f t="shared" si="2"/>
-        <v>0.00003275688246</v>
-      </c>
-      <c r="E2" s="9">
+        <v>3.144892193</v>
+      </c>
+      <c r="E2" s="15">
         <f t="shared" si="2"/>
-        <v>0.00004913532369</v>
-      </c>
-      <c r="F2" s="9">
+        <v>4.717338289</v>
+      </c>
+      <c r="F2" s="15">
         <f t="shared" si="2"/>
-        <v>0.00006551376492</v>
-      </c>
-      <c r="G2" s="9">
+        <v>6.289784385</v>
+      </c>
+      <c r="G2" s="15">
         <f t="shared" si="2"/>
-        <v>0.00008189220614</v>
-      </c>
-      <c r="H2" s="9">
+        <v>7.862230481</v>
+      </c>
+      <c r="H2" s="15">
         <f t="shared" si="2"/>
-        <v>0.00009827064737</v>
-      </c>
-      <c r="I2" s="9">
+        <v>9.434676578</v>
+      </c>
+      <c r="I2" s="15">
         <f t="shared" si="2"/>
-        <v>0.0001146490886</v>
-      </c>
-      <c r="J2" s="9">
+        <v>11.00712267</v>
+      </c>
+      <c r="J2" s="15">
         <f t="shared" si="2"/>
-        <v>0.0001310275298</v>
-      </c>
-      <c r="K2" s="9">
+        <v>12.57956877</v>
+      </c>
+      <c r="K2" s="15">
         <f t="shared" si="2"/>
-        <v>0.0001474059711</v>
-      </c>
-      <c r="L2" s="9">
+        <v>14.15201487</v>
+      </c>
+      <c r="L2" s="15">
         <f t="shared" si="2"/>
-        <v>0.0001637844123</v>
-      </c>
-      <c r="M2" s="9">
+        <v>15.72446096</v>
+      </c>
+      <c r="M2" s="15">
         <f t="shared" si="2"/>
-        <v>0.0001801628535</v>
+        <v>17.29690706</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="6">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="12">
         <f>('Decimalisation  1i'!A1*1)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="12">
         <f>('Decimalisation  1i'!A1*2)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="12">
         <f>('Decimalisation  1i'!A1*3)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="12">
         <f>('Decimalisation  1i'!A1*4)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="12">
         <f>('Decimalisation  1i'!A1*5)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="12">
         <f>('Decimalisation  1i'!A1*6)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="12">
         <f>('Decimalisation  1i'!A1*7)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="12">
         <f>('Decimalisation  1i'!A1*8)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="12">
         <f>('Decimalisation  1i'!A1*9)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="12">
         <f>('Decimalisation  1i'!A1*10)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="12">
         <f>('Decimalisation  1i'!A1*11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17">
         <f>(B2/B6)+(B6/B2)</f>
-        <v>2.009607843</v>
-      </c>
-      <c r="C4" s="6">
+        <v>6.114114724</v>
+      </c>
+      <c r="C4" s="12">
         <f>('Decimalisation  1i'!B3*1)</f>
-        <v>0.00001637844123</v>
-      </c>
-      <c r="D4" s="6">
+        <v>1.572446096</v>
+      </c>
+      <c r="D4" s="12">
         <f>('Decimalisation  1i'!B3*2)</f>
-        <v>0.00003275688246</v>
-      </c>
-      <c r="E4" s="6">
+        <v>3.144892193</v>
+      </c>
+      <c r="E4" s="12">
         <f>('Decimalisation  1i'!B3*3)</f>
-        <v>0.00004913532369</v>
-      </c>
-      <c r="F4" s="6">
+        <v>4.717338289</v>
+      </c>
+      <c r="F4" s="12">
         <f>('Decimalisation  1i'!B3*4)</f>
-        <v>0.00006551376492</v>
-      </c>
-      <c r="G4" s="6">
+        <v>6.289784385</v>
+      </c>
+      <c r="G4" s="12">
         <f>('Decimalisation  1i'!B3*5)</f>
-        <v>0.00008189220614</v>
-      </c>
-      <c r="H4" s="6">
+        <v>7.862230481</v>
+      </c>
+      <c r="H4" s="12">
         <f>('Decimalisation  1i'!B3*6)</f>
-        <v>0.00009827064737</v>
-      </c>
-      <c r="I4" s="6">
+        <v>9.434676578</v>
+      </c>
+      <c r="I4" s="12">
         <f>('Decimalisation  1i'!B3*7)</f>
-        <v>0.0001146490886</v>
-      </c>
-      <c r="J4" s="6">
+        <v>11.00712267</v>
+      </c>
+      <c r="J4" s="12">
         <f>('Decimalisation  1i'!B3*8)</f>
-        <v>0.0001310275298</v>
-      </c>
-      <c r="K4" s="6">
+        <v>12.57956877</v>
+      </c>
+      <c r="K4" s="12">
         <f>('Decimalisation  1i'!B3*9)</f>
-        <v>0.0001474059711</v>
-      </c>
-      <c r="L4" s="6">
+        <v>14.15201487</v>
+      </c>
+      <c r="L4" s="12">
         <f>('Decimalisation  1i'!B3*10)</f>
-        <v>0.0001637844123</v>
-      </c>
-      <c r="M4" s="6">
+        <v>15.72446096</v>
+      </c>
+      <c r="M4" s="12">
         <f>('Decimalisation  1i'!B3*11)</f>
-        <v>0.0001801628535</v>
+        <v>17.29690706</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="6">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="12">
         <f>('Decimalisation  1i'!C3*1)</f>
-        <v>28991.31211</v>
-      </c>
-      <c r="D5" s="6">
+        <v>1.234885</v>
+      </c>
+      <c r="D5" s="12">
         <f>('Decimalisation  1i'!C3*2)</f>
-        <v>57982.62422</v>
-      </c>
-      <c r="E5" s="6">
+        <v>2.46977</v>
+      </c>
+      <c r="E5" s="12">
         <f>('Decimalisation  1i'!C3*3)</f>
-        <v>86973.93633</v>
-      </c>
-      <c r="F5" s="6">
+        <v>3.704655</v>
+      </c>
+      <c r="F5" s="12">
         <f>('Decimalisation  1i'!C3*4)</f>
-        <v>115965.2484</v>
-      </c>
-      <c r="G5" s="6">
+        <v>4.93954</v>
+      </c>
+      <c r="G5" s="12">
         <f>('Decimalisation  1i'!C3*5)</f>
-        <v>144956.5606</v>
-      </c>
-      <c r="H5" s="6">
+        <v>6.174425</v>
+      </c>
+      <c r="H5" s="12">
         <f>('Decimalisation  1i'!C3*6)</f>
-        <v>173947.8727</v>
-      </c>
-      <c r="I5" s="6">
+        <v>7.40931</v>
+      </c>
+      <c r="I5" s="12">
         <f>('Decimalisation  1i'!C3*7)</f>
-        <v>202939.1848</v>
-      </c>
-      <c r="J5" s="6">
+        <v>8.644195</v>
+      </c>
+      <c r="J5" s="12">
         <f>('Decimalisation  1i'!C3*8)</f>
-        <v>231930.4969</v>
-      </c>
-      <c r="K5" s="6">
+        <v>9.87908</v>
+      </c>
+      <c r="K5" s="12">
         <f>('Decimalisation  1i'!C3*9)</f>
-        <v>260921.809</v>
-      </c>
-      <c r="L5" s="6">
+        <v>11.113965</v>
+      </c>
+      <c r="L5" s="12">
         <f>('Decimalisation  1i'!C3*10)</f>
-        <v>289913.1211</v>
-      </c>
-      <c r="M5" s="6">
+        <v>12.34885</v>
+      </c>
+      <c r="M5" s="12">
         <f>('Decimalisation  1i'!C3*11)</f>
-        <v>318904.4332</v>
+        <v>13.583735</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="12">
+      <c r="A6" s="13"/>
+      <c r="B6" s="18">
         <f>SUM(B7:M7)</f>
-        <v>-2174348.408</v>
-      </c>
-      <c r="C6" s="6">
+        <v>-58.02256088</v>
+      </c>
+      <c r="C6" s="12">
         <f t="shared" ref="C6:M6" si="3">(C3-C4)</f>
-        <v>-0.00001637844123</v>
-      </c>
-      <c r="D6" s="6">
+        <v>-1.572446096</v>
+      </c>
+      <c r="D6" s="12">
         <f t="shared" si="3"/>
-        <v>-0.00003275688246</v>
-      </c>
-      <c r="E6" s="6">
+        <v>-3.144892193</v>
+      </c>
+      <c r="E6" s="12">
         <f t="shared" si="3"/>
-        <v>-0.00004913532369</v>
-      </c>
-      <c r="F6" s="6">
+        <v>-4.717338289</v>
+      </c>
+      <c r="F6" s="12">
         <f t="shared" si="3"/>
-        <v>-0.00006551376492</v>
-      </c>
-      <c r="G6" s="6">
+        <v>-6.289784385</v>
+      </c>
+      <c r="G6" s="12">
         <f t="shared" si="3"/>
-        <v>-0.00008189220614</v>
-      </c>
-      <c r="H6" s="6">
+        <v>-7.862230481</v>
+      </c>
+      <c r="H6" s="12">
         <f t="shared" si="3"/>
-        <v>-0.00009827064737</v>
-      </c>
-      <c r="I6" s="6">
+        <v>-9.434676578</v>
+      </c>
+      <c r="I6" s="12">
         <f t="shared" si="3"/>
-        <v>-0.0001146490886</v>
-      </c>
-      <c r="J6" s="6">
+        <v>-11.00712267</v>
+      </c>
+      <c r="J6" s="12">
         <f t="shared" si="3"/>
-        <v>-0.0001310275298</v>
-      </c>
-      <c r="K6" s="6">
+        <v>-12.57956877</v>
+      </c>
+      <c r="K6" s="12">
         <f t="shared" si="3"/>
-        <v>-0.0001474059711</v>
-      </c>
-      <c r="L6" s="6">
+        <v>-14.15201487</v>
+      </c>
+      <c r="L6" s="12">
         <f t="shared" si="3"/>
-        <v>-0.0001637844123</v>
-      </c>
-      <c r="M6" s="6">
+        <v>-15.72446096</v>
+      </c>
+      <c r="M6" s="12">
         <f t="shared" si="3"/>
-        <v>-0.0001801628535</v>
+        <v>-17.29690706</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6">
+      <c r="A7" s="13"/>
+      <c r="B7" s="12">
         <f>(H1-G2-F3-E4-D5-C6)</f>
-        <v>-347895.7459</v>
-      </c>
-      <c r="C7" s="6">
+        <v>-68.28178727</v>
+      </c>
+      <c r="C7" s="12">
         <f t="shared" ref="C7:M7" si="4">(H2-G3-F4-E5-D6)</f>
-        <v>-86973.93626</v>
-      </c>
-      <c r="D7" s="6">
+        <v>2.585129385</v>
+      </c>
+      <c r="D7" s="12">
         <f t="shared" si="4"/>
-        <v>-115965.2484</v>
-      </c>
-      <c r="E7" s="6">
+        <v>2.922690481</v>
+      </c>
+      <c r="E7" s="12">
         <f t="shared" si="4"/>
-        <v>-144956.5605</v>
-      </c>
-      <c r="F7" s="6">
+        <v>3.260251578</v>
+      </c>
+      <c r="F7" s="12">
         <f t="shared" si="4"/>
-        <v>-173947.8725</v>
-      </c>
-      <c r="G7" s="6">
+        <v>3.597812674</v>
+      </c>
+      <c r="G7" s="12">
         <f t="shared" si="4"/>
-        <v>-202939.1846</v>
-      </c>
-      <c r="H7" s="6">
+        <v>3.93537377</v>
+      </c>
+      <c r="H7" s="12">
         <f t="shared" si="4"/>
-        <v>-231930.4967</v>
-      </c>
-      <c r="I7" s="6">
+        <v>4.272934866</v>
+      </c>
+      <c r="I7" s="12">
         <f t="shared" si="4"/>
-        <v>-260921.809</v>
-      </c>
-      <c r="J7" s="6">
+        <v>-14.25885719</v>
+      </c>
+      <c r="J7" s="12">
         <f t="shared" si="4"/>
-        <v>-289913.1211</v>
-      </c>
-      <c r="K7" s="6">
+        <v>-15.49374219</v>
+      </c>
+      <c r="K7" s="12">
         <f t="shared" si="4"/>
-        <v>-318904.433</v>
-      </c>
-      <c r="L7" s="6">
+        <v>2.140725963</v>
+      </c>
+      <c r="L7" s="12">
         <f t="shared" si="4"/>
-        <v>0.0001801628535</v>
-      </c>
-      <c r="M7" s="6">
+        <v>17.29690706</v>
+      </c>
+      <c r="M7" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1196,34 +3287,1015 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="32.29"/>
+    <col customWidth="1" min="3" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20">
         <f>'Reaction Complex  2i'!B4</f>
-        <v>2.009607843</v>
+        <v>6.114114724</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="23"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="14">
+      <c r="A4" s="21"/>
+      <c r="B4" s="20">
         <f>'Decimalisation  1i'!B2</f>
-        <v>0.0002320070592</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="23"/>
     </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1240,114 +4312,1095 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="3" width="19.57"/>
+    <col customWidth="1" min="4" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>1</v>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="18">
+      <c r="A4" s="24">
         <f>B4^B13</f>
-        <v>0.00007189047732</v>
-      </c>
-      <c r="B4" s="18">
+        <v>6.263625809</v>
+      </c>
+      <c r="B4" s="24">
         <f>'Square Root'!B4</f>
-        <v>0.0002320070592</v>
-      </c>
-      <c r="C4" s="22">
+        <v>5</v>
+      </c>
+      <c r="C4" s="26">
         <f>B4^B13</f>
-        <v>0.00007189047732</v>
+        <v>6.263625809</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>1</v>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="23">
+      <c r="A8" s="27">
         <f>B8^B13</f>
-        <v>2.215883386</v>
-      </c>
-      <c r="B8" s="23">
+        <v>7.878078158</v>
+      </c>
+      <c r="B8" s="27">
         <f>'Square Root'!B1</f>
-        <v>2.009607843</v>
-      </c>
-      <c r="C8" s="22">
+        <v>6.114114724</v>
+      </c>
+      <c r="C8" s="26">
         <f>B8^B13</f>
-        <v>2.215883386</v>
+        <v>7.878078158</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="22"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="19"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27">
         <f>1.14</f>
         <v>1.14</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="22"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="26"/>
     </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1369,254 +5422,2483 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
+      <c r="A1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="25">
+      <c r="A2" s="28">
         <f>'Square Root'!B1</f>
-        <v>2.009607843</v>
-      </c>
-      <c r="B2" s="25">
+        <v>6.114114724</v>
+      </c>
+      <c r="B2" s="28">
         <f>'Square Root'!B4</f>
-        <v>0.0002320070592</v>
-      </c>
-      <c r="C2" s="29">
+        <v>5</v>
+      </c>
+      <c r="C2" s="32">
         <f>A2-B2</f>
-        <v>2.009375836</v>
-      </c>
-      <c r="D2" s="27"/>
+        <v>1.114114724</v>
+      </c>
+      <c r="D2" s="30"/>
       <c r="E2" s="30"/>
-      <c r="F2" s="28"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="34">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="36">
         <v>0.0</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="37">
         <f>(C2^-1.14)+(A2+B2/2)</f>
-        <v>2.461070535</v>
-      </c>
-      <c r="F4" s="36">
+        <v>9.498211686</v>
+      </c>
+      <c r="F4" s="37">
         <f>C2</f>
-        <v>2.009375836</v>
+        <v>1.114114724</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="37">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35">
         <v>1.0</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="31">
         <f>(A2+B2/2)+F5</f>
-        <v>4.225315599</v>
-      </c>
-      <c r="F5" s="28">
+        <v>9.745212377</v>
+      </c>
+      <c r="F5" s="31">
         <f t="shared" ref="F5:F6" si="1">F4^1.14</f>
-        <v>2.215591752</v>
+        <v>1.131097654</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="37">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35">
         <v>2.0</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="31">
         <f>E5+F6</f>
-        <v>6.701929483</v>
-      </c>
-      <c r="F6" s="28">
+        <v>10.89598658</v>
+      </c>
+      <c r="F6" s="31">
         <f t="shared" si="1"/>
-        <v>2.476613884</v>
+        <v>1.150774198</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="38">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="31">
         <f>E6-F7</f>
-        <v>4.874608981</v>
-      </c>
-      <c r="F7" s="28">
+        <v>9.825602373</v>
+      </c>
+      <c r="F7" s="31">
         <f>F6^-(('Holographic Principle'!C4-'Holographic Principle'!C8)*0.3)</f>
-        <v>1.827320502</v>
+        <v>1.070384202</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="37">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35">
         <v>4.0</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="31">
         <f>E7+F8</f>
-        <v>6.862848898</v>
-      </c>
-      <c r="F8" s="28">
+        <v>10.90622796</v>
+      </c>
+      <c r="F8" s="31">
         <f>F7^1.14</f>
-        <v>1.988239917</v>
+        <v>1.080625589</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="38">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="31">
         <f>E8-F9</f>
-        <v>4.721559896</v>
-      </c>
-      <c r="F9" s="28">
+        <v>9.841635122</v>
+      </c>
+      <c r="F9" s="31">
         <f>F8^-(('Holographic Principle'!C4-'Holographic Principle'!C8)*0.5)</f>
-        <v>2.141289002</v>
+        <v>1.06459284</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35">
         <v>6.0</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="31">
         <f t="shared" ref="E10:E14" si="2">E9+F10</f>
-        <v>7.103713855</v>
-      </c>
-      <c r="F10" s="28">
+        <v>10.91559792</v>
+      </c>
+      <c r="F10" s="31">
         <f t="shared" ref="F10:F14" si="3">F9^1.14</f>
-        <v>2.382153959</v>
+        <v>1.073962796</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="37">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35">
         <v>7.0</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="31">
         <f t="shared" si="2"/>
-        <v>9.793672494</v>
-      </c>
-      <c r="F11" s="28">
+        <v>12.0003431</v>
+      </c>
+      <c r="F11" s="31">
         <f t="shared" si="3"/>
-        <v>2.689958639</v>
+        <v>1.084745183</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35">
         <v>8.0</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="31">
         <f t="shared" si="2"/>
-        <v>12.88332749</v>
-      </c>
-      <c r="F12" s="28">
+        <v>13.09751231</v>
+      </c>
+      <c r="F12" s="31">
         <f t="shared" si="3"/>
-        <v>3.089654994</v>
+        <v>1.097169212</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="37">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35">
         <v>9.0</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="31">
         <f t="shared" si="2"/>
-        <v>16.50156761</v>
-      </c>
-      <c r="F13" s="28">
+        <v>14.20901859</v>
+      </c>
+      <c r="F13" s="31">
         <f t="shared" si="3"/>
-        <v>3.618240119</v>
+        <v>1.111506273</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35">
         <v>10.0</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="31">
         <f t="shared" si="2"/>
-        <v>20.83355335</v>
-      </c>
-      <c r="F14" s="28">
+        <v>15.33709777</v>
+      </c>
+      <c r="F14" s="31">
         <f t="shared" si="3"/>
-        <v>4.331985743</v>
+        <v>1.128079187</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="38">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="31">
         <f>E14-F15</f>
-        <v>-14.79976408</v>
-      </c>
-      <c r="F15" s="28">
+        <v>14.09844453</v>
+      </c>
+      <c r="F15" s="31">
         <f>F14^-(('Holographic Principle'!C4-'Holographic Principle'!C8)*1.1)</f>
-        <v>35.63331743</v>
+        <v>1.238653247</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="40">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="39">
         <v>12.0</v>
       </c>
-      <c r="E16" s="41" t="str">
+      <c r="E16" s="40">
+        <f>((E15^(E15-E4)^-1.14)/(E6^-F16))</f>
+        <v>30.65946797</v>
+      </c>
+      <c r="F16" s="41">
+        <f>F15</f>
+        <v>1.238653247</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="3" width="19.57"/>
+    <col customWidth="1" min="4" max="4" width="18.14"/>
+    <col customWidth="1" min="5" max="6" width="35.29"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="28">
+        <f>'Square Root'!B4</f>
+        <v>5</v>
+      </c>
+      <c r="B2" s="28">
+        <f>'Square Root'!B1</f>
+        <v>6.114114724</v>
+      </c>
+      <c r="C2" s="32">
+        <f>A2-B2</f>
+        <v>-1.114114724</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="37" t="str">
+        <f>(C2^-1.14)+(A2+B2/2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F4" s="37">
+        <f>C2</f>
+        <v>-1.114114724</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="31" t="str">
+        <f>(A2+B2/2)+F5</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F5" s="31" t="str">
+        <f t="shared" ref="F5:F6" si="1">F4^1.14</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="31" t="str">
+        <f>E5+F6</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F6" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="31" t="str">
+        <f>E6-F7</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F7" s="31" t="str">
+        <f>F6^-(('Holographic Principle'!C4-'Holographic Principle'!C8)*0.3)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35">
+        <v>4.0</v>
+      </c>
+      <c r="E8" s="31" t="str">
+        <f>E7+F8</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F8" s="31" t="str">
+        <f>F7^1.14</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="31" t="str">
+        <f>E8-F9</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F9" s="31" t="str">
+        <f>F8^-(('Holographic Principle'!C4-'Holographic Principle'!C8)*0.5)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="E10" s="31" t="str">
+        <f t="shared" ref="E10:E14" si="2">E9+F10</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F10" s="31" t="str">
+        <f t="shared" ref="F10:F14" si="3">F9^1.14</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="E11" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="E12" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F12" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="E13" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F13" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="E14" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F14" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="31" t="str">
+        <f>E14-F15</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F15" s="31" t="str">
+        <f>F14^-(('Holographic Principle'!C4-'Holographic Principle'!C8)*1.1)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="39">
+        <v>12.0</v>
+      </c>
+      <c r="E16" s="40" t="str">
         <f>((E15^(E15-E4)^-1.14)/(E6^-F16))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="41" t="str">
         <f>F15</f>
-        <v>35.63331743</v>
+        <v>#NUM!</v>
       </c>
     </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Unit Functions/Currency/Unit_Currency(Differential_Inversions).xlsx
+++ b/Unit Functions/Currency/Unit_Currency(Differential_Inversions).xlsx
@@ -378,11 +378,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1304983164"/>
-        <c:axId val="854730598"/>
+        <c:axId val="2075871207"/>
+        <c:axId val="1645862848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1304983164"/>
+        <c:axId val="2075871207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,10 +428,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="854730598"/>
+        <c:crossAx val="1645862848"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="854730598"/>
+        <c:axId val="1645862848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -500,7 +500,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1304983164"/>
+        <c:crossAx val="2075871207"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/Unit Functions/Currency/Unit_Currency(Differential_Inversions).xlsx
+++ b/Unit Functions/Currency/Unit_Currency(Differential_Inversions).xlsx
@@ -225,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -233,19 +233,16 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
@@ -253,9 +250,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -378,11 +372,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2075871207"/>
-        <c:axId val="1645862848"/>
+        <c:axId val="104254889"/>
+        <c:axId val="942027683"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2075871207"/>
+        <c:axId val="104254889"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,10 +422,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1645862848"/>
+        <c:crossAx val="942027683"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1645862848"/>
+        <c:axId val="942027683"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -500,7 +494,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075871207"/>
+        <c:crossAx val="104254889"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -796,7 +790,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <f>B2-B3%</f>
-        <v>4.984275539</v>
+        <v>4.984462715</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -813,17 +807,17 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""CURRENCY:usdgbp"")"),0.809792)</f>
-        <v>0.809792</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""CURRENCY:usdgbp"")"),0.80125)</f>
+        <v>0.80125</v>
+      </c>
+      <c r="B3" s="2">
         <f>(((A3^1.14)+((C3^-1.14))))</f>
-        <v>1.572446096</v>
-      </c>
-      <c r="C3" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""CURRENCY:gbpusd"")"),1.234885)</f>
-        <v>1.234885</v>
+        <v>1.553728541</v>
+      </c>
+      <c r="C3" s="2">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""CURRENCY:gbpusd"")"),1.2478)</f>
+        <v>1.2478</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -838,19 +832,19 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
         <f>B2+B3%</f>
-        <v>5.015724461</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>5.015537285</v>
+      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -864,82 +858,82 @@
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <f>'Lambda Alternate 1.'!E16</f>
-        <v>30.65946797</v>
-      </c>
-      <c r="B8" s="10">
+        <v>15.74464046</v>
+      </c>
+      <c r="B8" s="3">
         <v>5.0</v>
       </c>
-      <c r="C8" s="9" t="str">
+      <c r="C8" s="8" t="str">
         <f>'Lambda Alternate 2'!E16</f>
         <v>#NUM!</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -1940,352 +1934,352 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10">
         <f>(H7-G6-F5-E4-D3-C2)</f>
-        <v>0.9058409625</v>
-      </c>
-      <c r="C1" s="12">
+        <v>0.5636854055</v>
+      </c>
+      <c r="C1" s="10">
         <f t="shared" ref="C1:M1" si="1">(H6-G5-F4-E3-D2)</f>
-        <v>-25.04377816</v>
-      </c>
-      <c r="D1" s="12">
+        <v>-24.88374249</v>
+      </c>
+      <c r="D1" s="10">
         <f t="shared" si="1"/>
-        <v>-30.99600144</v>
-      </c>
-      <c r="E1" s="12">
+        <v>-30.79272811</v>
+      </c>
+      <c r="E1" s="10">
         <f t="shared" si="1"/>
-        <v>-36.94822473</v>
-      </c>
-      <c r="F1" s="12">
+        <v>-36.70171373</v>
+      </c>
+      <c r="F1" s="10">
         <f t="shared" si="1"/>
-        <v>-42.90044802</v>
-      </c>
-      <c r="G1" s="12">
+        <v>-42.61069935</v>
+      </c>
+      <c r="G1" s="10">
         <f t="shared" si="1"/>
-        <v>-48.85267131</v>
-      </c>
-      <c r="H1" s="12">
+        <v>-48.51968497</v>
+      </c>
+      <c r="H1" s="10">
         <f t="shared" si="1"/>
-        <v>-54.8048946</v>
-      </c>
-      <c r="I1" s="12">
+        <v>-54.42867059</v>
+      </c>
+      <c r="I1" s="10">
         <f t="shared" si="1"/>
-        <v>-41.88776473</v>
-      </c>
-      <c r="J1" s="12">
+        <v>-41.69291373</v>
+      </c>
+      <c r="J1" s="10">
         <f t="shared" si="1"/>
-        <v>-31.44892193</v>
-      </c>
-      <c r="K1" s="12">
+        <v>-31.07457081</v>
+      </c>
+      <c r="K1" s="10">
         <f t="shared" si="1"/>
-        <v>-15.72446096</v>
-      </c>
-      <c r="L1" s="12">
+        <v>-15.53728541</v>
+      </c>
+      <c r="L1" s="10">
         <f t="shared" si="1"/>
-        <v>-17.29690706</v>
-      </c>
-      <c r="M1" s="12">
+        <v>-17.09101395</v>
+      </c>
+      <c r="M1" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12">
         <f>SUM(B1:M1)</f>
-        <v>-344.998232</v>
-      </c>
-      <c r="C2" s="15">
+        <v>-342.7693377</v>
+      </c>
+      <c r="C2" s="13">
         <f t="shared" ref="C2:M2" si="2">(C4-C3)</f>
-        <v>1.572446096</v>
-      </c>
-      <c r="D2" s="15">
+        <v>1.553728541</v>
+      </c>
+      <c r="D2" s="13">
         <f t="shared" si="2"/>
-        <v>3.144892193</v>
-      </c>
-      <c r="E2" s="15">
+        <v>3.107457081</v>
+      </c>
+      <c r="E2" s="13">
         <f t="shared" si="2"/>
-        <v>4.717338289</v>
-      </c>
-      <c r="F2" s="15">
+        <v>4.661185622</v>
+      </c>
+      <c r="F2" s="13">
         <f t="shared" si="2"/>
-        <v>6.289784385</v>
-      </c>
-      <c r="G2" s="15">
+        <v>6.214914162</v>
+      </c>
+      <c r="G2" s="13">
         <f t="shared" si="2"/>
-        <v>7.862230481</v>
-      </c>
-      <c r="H2" s="15">
+        <v>7.768642703</v>
+      </c>
+      <c r="H2" s="13">
         <f t="shared" si="2"/>
-        <v>9.434676578</v>
-      </c>
-      <c r="I2" s="15">
+        <v>9.322371243</v>
+      </c>
+      <c r="I2" s="13">
         <f t="shared" si="2"/>
-        <v>11.00712267</v>
-      </c>
-      <c r="J2" s="15">
+        <v>10.87609978</v>
+      </c>
+      <c r="J2" s="13">
         <f t="shared" si="2"/>
-        <v>12.57956877</v>
-      </c>
-      <c r="K2" s="15">
+        <v>12.42982832</v>
+      </c>
+      <c r="K2" s="13">
         <f t="shared" si="2"/>
-        <v>14.15201487</v>
-      </c>
-      <c r="L2" s="15">
+        <v>13.98355686</v>
+      </c>
+      <c r="L2" s="13">
         <f t="shared" si="2"/>
-        <v>15.72446096</v>
-      </c>
-      <c r="M2" s="15">
+        <v>15.53728541</v>
+      </c>
+      <c r="M2" s="13">
         <f t="shared" si="2"/>
-        <v>17.29690706</v>
+        <v>17.09101395</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="12">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="10">
         <f>('Decimalisation  1i'!A1*1)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <f>('Decimalisation  1i'!A1*2)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <f>('Decimalisation  1i'!A1*3)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <f>('Decimalisation  1i'!A1*4)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <f>('Decimalisation  1i'!A1*5)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="10">
         <f>('Decimalisation  1i'!A1*6)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="10">
         <f>('Decimalisation  1i'!A1*7)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="10">
         <f>('Decimalisation  1i'!A1*8)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="10">
         <f>('Decimalisation  1i'!A1*9)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="10">
         <f>('Decimalisation  1i'!A1*10)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="10">
         <f>('Decimalisation  1i'!A1*11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15">
         <f>(B2/B6)+(B6/B2)</f>
-        <v>6.114114724</v>
-      </c>
-      <c r="C4" s="12">
+        <v>5.943541906</v>
+      </c>
+      <c r="C4" s="10">
         <f>('Decimalisation  1i'!B3*1)</f>
-        <v>1.572446096</v>
-      </c>
-      <c r="D4" s="12">
+        <v>1.553728541</v>
+      </c>
+      <c r="D4" s="10">
         <f>('Decimalisation  1i'!B3*2)</f>
-        <v>3.144892193</v>
-      </c>
-      <c r="E4" s="12">
+        <v>3.107457081</v>
+      </c>
+      <c r="E4" s="10">
         <f>('Decimalisation  1i'!B3*3)</f>
-        <v>4.717338289</v>
-      </c>
-      <c r="F4" s="12">
+        <v>4.661185622</v>
+      </c>
+      <c r="F4" s="10">
         <f>('Decimalisation  1i'!B3*4)</f>
-        <v>6.289784385</v>
-      </c>
-      <c r="G4" s="12">
+        <v>6.214914162</v>
+      </c>
+      <c r="G4" s="10">
         <f>('Decimalisation  1i'!B3*5)</f>
-        <v>7.862230481</v>
-      </c>
-      <c r="H4" s="12">
+        <v>7.768642703</v>
+      </c>
+      <c r="H4" s="10">
         <f>('Decimalisation  1i'!B3*6)</f>
-        <v>9.434676578</v>
-      </c>
-      <c r="I4" s="12">
+        <v>9.322371243</v>
+      </c>
+      <c r="I4" s="10">
         <f>('Decimalisation  1i'!B3*7)</f>
-        <v>11.00712267</v>
-      </c>
-      <c r="J4" s="12">
+        <v>10.87609978</v>
+      </c>
+      <c r="J4" s="10">
         <f>('Decimalisation  1i'!B3*8)</f>
-        <v>12.57956877</v>
-      </c>
-      <c r="K4" s="12">
+        <v>12.42982832</v>
+      </c>
+      <c r="K4" s="10">
         <f>('Decimalisation  1i'!B3*9)</f>
-        <v>14.15201487</v>
-      </c>
-      <c r="L4" s="12">
+        <v>13.98355686</v>
+      </c>
+      <c r="L4" s="10">
         <f>('Decimalisation  1i'!B3*10)</f>
-        <v>15.72446096</v>
-      </c>
-      <c r="M4" s="12">
+        <v>15.53728541</v>
+      </c>
+      <c r="M4" s="10">
         <f>('Decimalisation  1i'!B3*11)</f>
-        <v>17.29690706</v>
+        <v>17.09101395</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="12">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="10">
         <f>('Decimalisation  1i'!C3*1)</f>
-        <v>1.234885</v>
-      </c>
-      <c r="D5" s="12">
+        <v>1.2478</v>
+      </c>
+      <c r="D5" s="10">
         <f>('Decimalisation  1i'!C3*2)</f>
-        <v>2.46977</v>
-      </c>
-      <c r="E5" s="12">
+        <v>2.4956</v>
+      </c>
+      <c r="E5" s="10">
         <f>('Decimalisation  1i'!C3*3)</f>
-        <v>3.704655</v>
-      </c>
-      <c r="F5" s="12">
+        <v>3.7434</v>
+      </c>
+      <c r="F5" s="10">
         <f>('Decimalisation  1i'!C3*4)</f>
-        <v>4.93954</v>
-      </c>
-      <c r="G5" s="12">
+        <v>4.9912</v>
+      </c>
+      <c r="G5" s="10">
         <f>('Decimalisation  1i'!C3*5)</f>
-        <v>6.174425</v>
-      </c>
-      <c r="H5" s="12">
+        <v>6.239</v>
+      </c>
+      <c r="H5" s="10">
         <f>('Decimalisation  1i'!C3*6)</f>
-        <v>7.40931</v>
-      </c>
-      <c r="I5" s="12">
+        <v>7.4868</v>
+      </c>
+      <c r="I5" s="10">
         <f>('Decimalisation  1i'!C3*7)</f>
-        <v>8.644195</v>
-      </c>
-      <c r="J5" s="12">
+        <v>8.7346</v>
+      </c>
+      <c r="J5" s="10">
         <f>('Decimalisation  1i'!C3*8)</f>
-        <v>9.87908</v>
-      </c>
-      <c r="K5" s="12">
+        <v>9.9824</v>
+      </c>
+      <c r="K5" s="10">
         <f>('Decimalisation  1i'!C3*9)</f>
-        <v>11.113965</v>
-      </c>
-      <c r="L5" s="12">
+        <v>11.2302</v>
+      </c>
+      <c r="L5" s="10">
         <f>('Decimalisation  1i'!C3*10)</f>
-        <v>12.34885</v>
-      </c>
-      <c r="M5" s="12">
+        <v>12.478</v>
+      </c>
+      <c r="M5" s="10">
         <f>('Decimalisation  1i'!C3*11)</f>
-        <v>13.583735</v>
+        <v>13.7258</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="18">
+      <c r="A6" s="11"/>
+      <c r="B6" s="16">
         <f>SUM(B7:M7)</f>
-        <v>-58.02256088</v>
-      </c>
-      <c r="C6" s="12">
+        <v>-59.40297211</v>
+      </c>
+      <c r="C6" s="10">
         <f t="shared" ref="C6:M6" si="3">(C3-C4)</f>
-        <v>-1.572446096</v>
-      </c>
-      <c r="D6" s="12">
+        <v>-1.553728541</v>
+      </c>
+      <c r="D6" s="10">
         <f t="shared" si="3"/>
-        <v>-3.144892193</v>
-      </c>
-      <c r="E6" s="12">
+        <v>-3.107457081</v>
+      </c>
+      <c r="E6" s="10">
         <f t="shared" si="3"/>
-        <v>-4.717338289</v>
-      </c>
-      <c r="F6" s="12">
+        <v>-4.661185622</v>
+      </c>
+      <c r="F6" s="10">
         <f t="shared" si="3"/>
-        <v>-6.289784385</v>
-      </c>
-      <c r="G6" s="12">
+        <v>-6.214914162</v>
+      </c>
+      <c r="G6" s="10">
         <f t="shared" si="3"/>
-        <v>-7.862230481</v>
-      </c>
-      <c r="H6" s="12">
+        <v>-7.768642703</v>
+      </c>
+      <c r="H6" s="10">
         <f t="shared" si="3"/>
-        <v>-9.434676578</v>
-      </c>
-      <c r="I6" s="12">
+        <v>-9.322371243</v>
+      </c>
+      <c r="I6" s="10">
         <f t="shared" si="3"/>
-        <v>-11.00712267</v>
-      </c>
-      <c r="J6" s="12">
+        <v>-10.87609978</v>
+      </c>
+      <c r="J6" s="10">
         <f t="shared" si="3"/>
-        <v>-12.57956877</v>
-      </c>
-      <c r="K6" s="12">
+        <v>-12.42982832</v>
+      </c>
+      <c r="K6" s="10">
         <f t="shared" si="3"/>
-        <v>-14.15201487</v>
-      </c>
-      <c r="L6" s="12">
+        <v>-13.98355686</v>
+      </c>
+      <c r="L6" s="10">
         <f t="shared" si="3"/>
-        <v>-15.72446096</v>
-      </c>
-      <c r="M6" s="12">
+        <v>-15.53728541</v>
+      </c>
+      <c r="M6" s="10">
         <f t="shared" si="3"/>
-        <v>-17.29690706</v>
+        <v>-17.09101395</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="12">
+      <c r="A7" s="11"/>
+      <c r="B7" s="10">
         <f>(H1-G2-F3-E4-D5-C6)</f>
-        <v>-68.28178727</v>
-      </c>
-      <c r="C7" s="12">
+        <v>-67.80037038</v>
+      </c>
+      <c r="C7" s="10">
         <f t="shared" ref="C7:M7" si="4">(H2-G3-F4-E5-D6)</f>
-        <v>2.585129385</v>
-      </c>
-      <c r="D7" s="12">
+        <v>2.471514162</v>
+      </c>
+      <c r="D7" s="10">
         <f t="shared" si="4"/>
-        <v>2.922690481</v>
-      </c>
-      <c r="E7" s="12">
+        <v>2.777442703</v>
+      </c>
+      <c r="E7" s="10">
         <f t="shared" si="4"/>
-        <v>3.260251578</v>
-      </c>
-      <c r="F7" s="12">
+        <v>3.083371243</v>
+      </c>
+      <c r="F7" s="10">
         <f t="shared" si="4"/>
-        <v>3.597812674</v>
-      </c>
-      <c r="G7" s="12">
+        <v>3.389299784</v>
+      </c>
+      <c r="G7" s="10">
         <f t="shared" si="4"/>
-        <v>3.93537377</v>
-      </c>
-      <c r="H7" s="12">
+        <v>3.695228324</v>
+      </c>
+      <c r="H7" s="10">
         <f t="shared" si="4"/>
-        <v>4.272934866</v>
-      </c>
-      <c r="I7" s="12">
+        <v>4.001156865</v>
+      </c>
+      <c r="I7" s="10">
         <f t="shared" si="4"/>
-        <v>-14.25885719</v>
-      </c>
-      <c r="J7" s="12">
+        <v>-14.33765708</v>
+      </c>
+      <c r="J7" s="10">
         <f t="shared" si="4"/>
-        <v>-15.49374219</v>
-      </c>
-      <c r="K7" s="12">
+        <v>-15.58545708</v>
+      </c>
+      <c r="K7" s="10">
         <f t="shared" si="4"/>
-        <v>2.140725963</v>
-      </c>
-      <c r="L7" s="12">
+        <v>1.811485405</v>
+      </c>
+      <c r="L7" s="10">
         <f t="shared" si="4"/>
-        <v>17.29690706</v>
-      </c>
-      <c r="M7" s="12">
+        <v>17.09101395</v>
+      </c>
+      <c r="M7" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3291,30 +3285,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18">
         <f>'Reaction Complex  2i'!B4</f>
-        <v>6.114114724</v>
+        <v>5.943541906</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="21"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="20">
+      <c r="A4" s="19"/>
+      <c r="B4" s="18">
         <f>'Decimalisation  1i'!B2</f>
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="21"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -4316,110 +4310,110 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="24">
+      <c r="A4" s="22">
         <f>B4^B13</f>
         <v>6.263625809</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="22">
         <f>'Square Root'!B4</f>
         <v>5</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <f>B4^B13</f>
         <v>6.263625809</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="26"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="27">
+      <c r="A8" s="25">
         <f>B8^B13</f>
-        <v>7.878078158</v>
-      </c>
-      <c r="B8" s="27">
+        <v>7.628017403</v>
+      </c>
+      <c r="B8" s="25">
         <f>'Square Root'!B1</f>
-        <v>6.114114724</v>
-      </c>
-      <c r="C8" s="26">
+        <v>5.943541906</v>
+      </c>
+      <c r="C8" s="24">
         <f>B8^B13</f>
-        <v>7.878078158</v>
+        <v>7.628017403</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="24"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="26"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="24"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25">
         <f>1.14</f>
         <v>1.14</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="24"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="24"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -5422,252 +5416,252 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="28">
+      <c r="A2" s="26">
         <f>'Square Root'!B1</f>
-        <v>6.114114724</v>
-      </c>
-      <c r="B2" s="28">
+        <v>5.943541906</v>
+      </c>
+      <c r="B2" s="26">
         <f>'Square Root'!B4</f>
         <v>5</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="30">
         <f>A2-B2</f>
-        <v>1.114114724</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+        <v>0.9435419058</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="36">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="34">
         <v>0.0</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="35">
         <f>(C2^-1.14)+(A2+B2/2)</f>
-        <v>9.498211686</v>
-      </c>
-      <c r="F4" s="37">
+        <v>9.512036279</v>
+      </c>
+      <c r="F4" s="35">
         <f>C2</f>
-        <v>1.114114724</v>
+        <v>0.9435419058</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33">
         <v>1.0</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="29">
         <f>(A2+B2/2)+F5</f>
-        <v>9.745212377</v>
-      </c>
-      <c r="F5" s="31">
+        <v>9.379438271</v>
+      </c>
+      <c r="F5" s="29">
         <f t="shared" ref="F5:F6" si="1">F4^1.14</f>
-        <v>1.131097654</v>
+        <v>0.9358963649</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33">
         <v>2.0</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="29">
         <f>E5+F6</f>
-        <v>10.89598658</v>
-      </c>
-      <c r="F6" s="31">
+        <v>10.30669426</v>
+      </c>
+      <c r="F6" s="29">
         <f t="shared" si="1"/>
-        <v>1.150774198</v>
+        <v>0.9272559887</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="38" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="29">
         <f>E6-F7</f>
-        <v>9.825602373</v>
-      </c>
-      <c r="F7" s="31">
+        <v>9.337135259</v>
+      </c>
+      <c r="F7" s="29">
         <f>F6^-(('Holographic Principle'!C4-'Holographic Principle'!C8)*0.3)</f>
-        <v>1.070384202</v>
+        <v>0.9695590002</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33">
         <v>4.0</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="29">
         <f>E7+F8</f>
-        <v>10.90622796</v>
-      </c>
-      <c r="F8" s="31">
+        <v>10.30250712</v>
+      </c>
+      <c r="F8" s="29">
         <f>F7^1.14</f>
-        <v>1.080625589</v>
+        <v>0.9653718619</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="29">
         <f>E8-F9</f>
-        <v>9.841635122</v>
-      </c>
-      <c r="F9" s="31">
+        <v>9.326262295</v>
+      </c>
+      <c r="F9" s="29">
         <f>F8^-(('Holographic Principle'!C4-'Holographic Principle'!C8)*0.5)</f>
-        <v>1.06459284</v>
+        <v>0.9762448258</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33">
         <v>6.0</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="29">
         <f t="shared" ref="E10:E14" si="2">E9+F10</f>
-        <v>10.91559792</v>
-      </c>
-      <c r="F10" s="31">
+        <v>10.29922674</v>
+      </c>
+      <c r="F10" s="29">
         <f t="shared" ref="F10:F14" si="3">F9^1.14</f>
-        <v>1.073962796</v>
+        <v>0.9729644433</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33">
         <v>7.0</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="29">
         <f t="shared" si="2"/>
-        <v>12.0003431</v>
-      </c>
-      <c r="F11" s="31">
+        <v>11.26846499</v>
+      </c>
+      <c r="F11" s="29">
         <f t="shared" si="3"/>
-        <v>1.084745183</v>
+        <v>0.9692382507</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33">
         <v>8.0</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="29">
         <f t="shared" si="2"/>
-        <v>13.09751231</v>
-      </c>
-      <c r="F12" s="31">
+        <v>12.23347278</v>
+      </c>
+      <c r="F12" s="29">
         <f t="shared" si="3"/>
-        <v>1.097169212</v>
+        <v>0.9650077949</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33">
         <v>9.0</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="29">
         <f t="shared" si="2"/>
-        <v>14.20901859</v>
-      </c>
-      <c r="F13" s="31">
+        <v>13.19368038</v>
+      </c>
+      <c r="F13" s="29">
         <f t="shared" si="3"/>
-        <v>1.111506273</v>
+        <v>0.9602075941</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33">
         <v>10.0</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="29">
         <f t="shared" si="2"/>
-        <v>15.33709777</v>
-      </c>
-      <c r="F14" s="31">
+        <v>14.14844486</v>
+      </c>
+      <c r="F14" s="29">
         <f t="shared" si="3"/>
-        <v>1.128079187</v>
+        <v>0.9547644841</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="29">
         <f>E14-F15</f>
-        <v>14.09844453</v>
-      </c>
-      <c r="F15" s="31">
+        <v>13.21556078</v>
+      </c>
+      <c r="F15" s="29">
         <f>F14^-(('Holographic Principle'!C4-'Holographic Principle'!C8)*1.1)</f>
-        <v>1.238653247</v>
+        <v>0.9328840806</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="39">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="37">
         <v>12.0</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="38">
         <f>((E15^(E15-E4)^-1.14)/(E6^-F16))</f>
-        <v>30.65946797</v>
-      </c>
-      <c r="F16" s="41">
+        <v>15.74464046</v>
+      </c>
+      <c r="F16" s="39">
         <f>F15</f>
-        <v>1.238653247</v>
+        <v>0.9328840806</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -6671,250 +6665,250 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="28">
+      <c r="A2" s="26">
         <f>'Square Root'!B4</f>
         <v>5</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="26">
         <f>'Square Root'!B1</f>
-        <v>6.114114724</v>
-      </c>
-      <c r="C2" s="32">
+        <v>5.943541906</v>
+      </c>
+      <c r="C2" s="30">
         <f>A2-B2</f>
-        <v>-1.114114724</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+        <v>-0.9435419058</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="36">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="34">
         <v>0.0</v>
       </c>
-      <c r="E4" s="37" t="str">
+      <c r="E4" s="35" t="str">
         <f>(C2^-1.14)+(A2+B2/2)</f>
         <v>#NUM!</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="35">
         <f>C2</f>
-        <v>-1.114114724</v>
+        <v>-0.9435419058</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33">
         <v>1.0</v>
       </c>
-      <c r="E5" s="31" t="str">
+      <c r="E5" s="29" t="str">
         <f>(A2+B2/2)+F5</f>
         <v>#NUM!</v>
       </c>
-      <c r="F5" s="31" t="str">
+      <c r="F5" s="29" t="str">
         <f t="shared" ref="F5:F6" si="1">F4^1.14</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33">
         <v>2.0</v>
       </c>
-      <c r="E6" s="31" t="str">
+      <c r="E6" s="29" t="str">
         <f>E5+F6</f>
         <v>#NUM!</v>
       </c>
-      <c r="F6" s="31" t="str">
+      <c r="F6" s="29" t="str">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="38" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="31" t="str">
+      <c r="E7" s="29" t="str">
         <f>E6-F7</f>
         <v>#NUM!</v>
       </c>
-      <c r="F7" s="31" t="str">
+      <c r="F7" s="29" t="str">
         <f>F6^-(('Holographic Principle'!C4-'Holographic Principle'!C8)*0.3)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33">
         <v>4.0</v>
       </c>
-      <c r="E8" s="31" t="str">
+      <c r="E8" s="29" t="str">
         <f>E7+F8</f>
         <v>#NUM!</v>
       </c>
-      <c r="F8" s="31" t="str">
+      <c r="F8" s="29" t="str">
         <f>F7^1.14</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="31" t="str">
+      <c r="E9" s="29" t="str">
         <f>E8-F9</f>
         <v>#NUM!</v>
       </c>
-      <c r="F9" s="31" t="str">
+      <c r="F9" s="29" t="str">
         <f>F8^-(('Holographic Principle'!C4-'Holographic Principle'!C8)*0.5)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33">
         <v>6.0</v>
       </c>
-      <c r="E10" s="31" t="str">
+      <c r="E10" s="29" t="str">
         <f t="shared" ref="E10:E14" si="2">E9+F10</f>
         <v>#NUM!</v>
       </c>
-      <c r="F10" s="31" t="str">
+      <c r="F10" s="29" t="str">
         <f t="shared" ref="F10:F14" si="3">F9^1.14</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33">
         <v>7.0</v>
       </c>
-      <c r="E11" s="31" t="str">
+      <c r="E11" s="29" t="str">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="F11" s="31" t="str">
+      <c r="F11" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33">
         <v>8.0</v>
       </c>
-      <c r="E12" s="31" t="str">
+      <c r="E12" s="29" t="str">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="F12" s="31" t="str">
+      <c r="F12" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33">
         <v>9.0</v>
       </c>
-      <c r="E13" s="31" t="str">
+      <c r="E13" s="29" t="str">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="F13" s="31" t="str">
+      <c r="F13" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33">
         <v>10.0</v>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E14" s="29" t="str">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="F14" s="31" t="str">
+      <c r="F14" s="29" t="str">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="31" t="str">
+      <c r="E15" s="29" t="str">
         <f>E14-F15</f>
         <v>#NUM!</v>
       </c>
-      <c r="F15" s="31" t="str">
+      <c r="F15" s="29" t="str">
         <f>F14^-(('Holographic Principle'!C4-'Holographic Principle'!C8)*1.1)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="39">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="37">
         <v>12.0</v>
       </c>
-      <c r="E16" s="40" t="str">
+      <c r="E16" s="38" t="str">
         <f>((E15^(E15-E4)^-1.14)/(E6^-F16))</f>
         <v>#NUM!</v>
       </c>
-      <c r="F16" s="41" t="str">
+      <c r="F16" s="39" t="str">
         <f>F15</f>
         <v>#NUM!</v>
       </c>
